--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-desired-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-desired-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,99 +43,123 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -145,94 +169,112 @@
     <t>join</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>alert</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -590,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -709,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,7 +801,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -777,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9130434782608695</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -859,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8918918918918919</v>
+        <v>0.88</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.9268929503916449</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8888888888888888</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.9148936170212766</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.863013698630137</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.9084507042253521</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L9">
-        <v>129</v>
+        <v>352</v>
       </c>
       <c r="M9">
-        <v>129</v>
+        <v>352</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8461538461538461</v>
+        <v>0.8664383561643836</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.8984375</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.8962264150943396</v>
+        <v>0.8984375</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.89375</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7843137254901961</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.8875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L14">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>0.8787878787878788</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1309,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7577519379844961</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C16">
-        <v>391</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>391</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7435897435897436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,13 +1451,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7354497354497355</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="C18">
-        <v>139</v>
+        <v>396</v>
       </c>
       <c r="D18">
-        <v>139</v>
+        <v>396</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1427,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K18">
-        <v>0.8333333333333334</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,7 +1501,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7297297297297297</v>
+        <v>0.75</v>
       </c>
       <c r="C19">
         <v>27</v>
@@ -1477,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>0.8253968253968254</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1509,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7288135593220338</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1527,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1551,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1559,13 +1601,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1577,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.78</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1601,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1609,13 +1651,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6510067114093959</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C22">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1627,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0.7705882352941177</v>
+        <v>0.8</v>
       </c>
       <c r="L22">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1651,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1659,13 +1701,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6451612903225806</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1680,16 +1722,16 @@
         <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K23">
-        <v>0.7647058823529411</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1701,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1709,13 +1751,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6181818181818182</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1727,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.7525423728813559</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L24">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1751,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1759,13 +1801,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5357142857142857</v>
+        <v>0.6711409395973155</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1777,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.7364016736401674</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L25">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1801,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1809,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5272727272727272</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1827,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.7340425531914894</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L26">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1851,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1859,13 +1901,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5066666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1877,19 +1919,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K27">
-        <v>0.7307692307692307</v>
+        <v>0.7735294117647059</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1901,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1909,13 +1951,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3636363636363636</v>
+        <v>0.625</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1927,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>0.7142857142857143</v>
+        <v>0.7573221757322176</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1951,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1959,13 +2001,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3293650793650794</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C29">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1977,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K29">
-        <v>0.7</v>
+        <v>0.7559322033898305</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2001,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2009,13 +2051,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.25</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2027,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.6923076923076923</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2051,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2059,13 +2101,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2111111111111111</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2077,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K31">
-        <v>0.6853932584269663</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L31">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2101,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2109,13 +2151,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1662198391420912</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C32">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2127,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2151,111 +2193,461 @@
         <v>0</v>
       </c>
       <c r="Q32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.4087301587301587</v>
+      </c>
+      <c r="C33">
+        <v>103</v>
+      </c>
+      <c r="D33">
+        <v>103</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>149</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="L33">
+        <v>46</v>
+      </c>
+      <c r="M33">
+        <v>46</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.4</v>
+      </c>
+      <c r="C34">
+        <v>36</v>
+      </c>
+      <c r="D34">
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>54</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34">
+        <v>0.6888888888888889</v>
+      </c>
+      <c r="L34">
+        <v>31</v>
+      </c>
+      <c r="M34">
+        <v>31</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33">
-        <v>0.5512820512820513</v>
-      </c>
-      <c r="L33">
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.3875</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>31</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>49</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.3766233766233766</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>29</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>48</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36">
+        <v>0.675</v>
+      </c>
+      <c r="L36">
+        <v>27</v>
+      </c>
+      <c r="M36">
+        <v>27</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.2010723860589812</v>
+      </c>
+      <c r="C37">
+        <v>75</v>
+      </c>
+      <c r="D37">
+        <v>75</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>298</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37">
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="L37">
+        <v>60</v>
+      </c>
+      <c r="M37">
+        <v>60</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M33">
-        <v>43</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L34">
-        <v>24</v>
-      </c>
-      <c r="M34">
-        <v>24</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35">
-        <v>0.4931506849315068</v>
-      </c>
-      <c r="L35">
+      <c r="B38">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>275</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38">
+        <v>0.6714285714285714</v>
+      </c>
+      <c r="L38">
+        <v>47</v>
+      </c>
+      <c r="M38">
+        <v>47</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.007083065035415326</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>0.04</v>
+      </c>
+      <c r="F39">
+        <v>0.96</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>3084</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="L39">
+        <v>25</v>
+      </c>
+      <c r="M39">
+        <v>25</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="L40">
+        <v>44</v>
+      </c>
+      <c r="M40">
+        <v>44</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41">
+        <v>0.5625</v>
+      </c>
+      <c r="L41">
         <v>36</v>
       </c>
-      <c r="M35">
+      <c r="M41">
         <v>36</v>
       </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K36">
-        <v>0.453125</v>
-      </c>
-      <c r="L36">
-        <v>29</v>
-      </c>
-      <c r="M36">
-        <v>29</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>35</v>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42">
+        <v>0.5616438356164384</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K43">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="L43">
+        <v>25</v>
+      </c>
+      <c r="M43">
+        <v>25</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
